--- a/diplomamunka latex/Book1.xlsx
+++ b/diplomamunka latex/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Szabo Ferenc\Pictures\diplomamunka\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fszabo3\Documents\Uni\VHDL-I2C-SPI-Programmer2\diplomamunka latex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE54CDA-0089-4685-B8CE-AE3449F7E437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8924652-4807-4EEA-9381-CC967C6B7CDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21585" yWindow="4215" windowWidth="12960" windowHeight="7080" xr2:uid="{F3B94CBB-0BFF-4F86-AE50-40A6E33FE4C6}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{F3B94CBB-0BFF-4F86-AE50-40A6E33FE4C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>2,4</t>
   </si>
   <si>
-    <t>Ellenállósokon lévő feszültség</t>
+    <t>Ellenállásokon eső feszültség</t>
   </si>
 </sst>
 </file>
@@ -687,8 +687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6241E75E-0F01-47E2-95FC-412084F17579}">
   <dimension ref="B2:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" zoomScale="243" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
